--- a/Project 1/datos/Hungarian_Switzerland.xlsx
+++ b/Project 1/datos/Hungarian_Switzerland.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agus/Work/Teaching/Assignatures/Curs 19-20/LABORATORI DE PROCESSAT DE DADES I VISUALITZACIÓ/Pràctica/Heart disease dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32a94ba6b0e98955/Escritorio/Data Lab Processing/data_lab/Project 1/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F68C83-F72B-004B-86D9-2E9B28D7C0FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F68C83-F72B-004B-86D9-2E9B28D7C0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{84BF7471-190D-C74B-BEF3-EDF2CB84272A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{84BF7471-190D-C74B-BEF3-EDF2CB84272A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hungarian Data" sheetId="3" r:id="rId1"/>
@@ -1384,9 +1384,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1424,7 +1424,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1530,7 +1530,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1672,7 +1672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1682,31 +1682,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CDF0D4-BC3A-6A48-B4BB-AA33FAC4B88B}">
   <dimension ref="A1:O295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="6"/>
-    <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="6"/>
+    <col min="2" max="2" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="5" t="s">
         <v>31</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>64</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>65</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>66</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>67</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>69</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>70</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>72</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>73</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>74</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>75</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>77</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>78</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>79</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>81</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>82</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>83</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>84</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>85</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>86</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>87</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>88</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>89</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>90</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>91</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>92</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>93</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>94</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>96</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>97</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>98</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>99</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>100</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>101</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>102</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>103</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>104</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>105</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>106</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>107</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>108</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>109</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>110</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>111</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>112</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>113</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>114</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>115</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>116</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>117</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>118</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>119</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>120</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>121</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>122</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>123</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>124</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>125</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>126</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>127</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>128</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>129</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>130</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>131</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>132</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>133</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>134</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>135</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>136</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>137</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>138</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>139</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>140</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>141</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>142</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>143</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>144</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>145</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>146</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>147</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>148</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>149</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>150</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>151</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>152</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>153</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>154</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>155</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>156</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>157</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>158</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>159</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>160</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>161</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>162</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>163</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>164</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>165</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>166</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>167</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>168</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>169</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>170</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>171</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>172</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>173</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>174</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>175</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>176</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>177</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>178</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>179</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>180</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>181</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>182</v>
       </c>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>183</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>184</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>185</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>186</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>187</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>188</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>189</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>190</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>191</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>192</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>193</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>194</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>195</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>196</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>197</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>198</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>199</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>200</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>201</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>202</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>203</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>204</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>205</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>206</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>207</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
         <v>208</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
         <v>209</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>210</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>211</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
         <v>212</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>213</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
         <v>214</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
         <v>215</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
         <v>216</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>217</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
         <v>218</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>219</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>220</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>221</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>222</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>223</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
         <v>224</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>225</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>226</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>227</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>228</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>229</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
         <v>230</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>231</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
         <v>232</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>233</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>234</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>235</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
         <v>236</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>237</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
         <v>238</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
         <v>239</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
         <v>240</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
         <v>241</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
         <v>242</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>243</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>244</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>245</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>246</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>247</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>248</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>249</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
         <v>250</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>251</v>
       </c>
@@ -11244,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
         <v>252</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
         <v>253</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
         <v>254</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>255</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>256</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>257</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
         <v>258</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>259</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
         <v>260</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>261</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>262</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>263</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
         <v>264</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>265</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
         <v>266</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>267</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>268</v>
       </c>
@@ -12043,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>269</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
         <v>270</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>271</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
         <v>272</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>273</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
         <v>274</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
         <v>275</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
         <v>276</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
         <v>277</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
         <v>278</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>279</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
         <v>280</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
         <v>281</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>282</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
         <v>283</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
         <v>284</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
         <v>285</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
         <v>286</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
         <v>287</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
         <v>288</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>289</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
         <v>290</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="7" t="s">
         <v>291</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
         <v>292</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
         <v>293</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
         <v>294</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
         <v>295</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
         <v>296</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
         <v>297</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
         <v>298</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
         <v>299</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
         <v>300</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
         <v>301</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
         <v>302</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
         <v>303</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
         <v>304</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
         <v>305</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
         <v>306</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
         <v>307</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
         <v>308</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
         <v>309</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
         <v>310</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
         <v>311</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
         <v>312</v>
       </c>
@@ -14111,7 +14111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
         <v>313</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
         <v>314</v>
       </c>
@@ -14205,7 +14205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
         <v>315</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
         <v>316</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
         <v>317</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
         <v>318</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
         <v>319</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
         <v>320</v>
       </c>
@@ -14487,7 +14487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="7" t="s">
         <v>321</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="7" t="s">
         <v>322</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="7" t="s">
         <v>323</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="7" t="s">
         <v>324</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="7" t="s">
         <v>325</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="7" t="s">
         <v>326</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="7" t="s">
         <v>327</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="7" t="s">
         <v>328</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="7" t="s">
         <v>329</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="7" t="s">
         <v>330</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
         <v>331</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
         <v>332</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
         <v>333</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
         <v>334</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
         <v>335</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
         <v>336</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
         <v>337</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
         <v>338</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
         <v>339</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="7" t="s">
         <v>340</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="7" t="s">
         <v>341</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
         <v>342</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="7" t="s">
         <v>343</v>
       </c>
@@ -15577,30 +15577,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DB74C2-B1F6-4949-B7AB-0971DF01FF73}">
   <dimension ref="A1:O124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="2" max="2" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>31</v>
@@ -15645,7 +15645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>51</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>52</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>54</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>57</v>
       </c>
@@ -16021,7 +16021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>58</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>61</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>62</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>63</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>64</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>65</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>66</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>67</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>69</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>70</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>72</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>73</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>74</v>
       </c>
@@ -16820,7 +16820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>75</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>76</v>
       </c>
@@ -16914,7 +16914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>77</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>78</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>79</v>
       </c>
@@ -17055,7 +17055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>80</v>
       </c>
@@ -17102,7 +17102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>81</v>
       </c>
@@ -17149,7 +17149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>82</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>83</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>84</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>85</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>86</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>87</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>88</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>89</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>90</v>
       </c>
@@ -17572,7 +17572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>91</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>92</v>
       </c>
@@ -17666,7 +17666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>93</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>94</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>95</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>96</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>97</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>98</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>99</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>100</v>
       </c>
@@ -18042,7 +18042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>101</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>102</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>103</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>104</v>
       </c>
@@ -18230,7 +18230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>105</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>106</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>107</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>108</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>109</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>110</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>111</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>112</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>113</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>114</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>115</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>116</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>117</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>118</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>119</v>
       </c>
@@ -18935,7 +18935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>120</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>121</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>122</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>123</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>124</v>
       </c>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>125</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>126</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>127</v>
       </c>
@@ -19311,7 +19311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>128</v>
       </c>
@@ -19358,7 +19358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>129</v>
       </c>
@@ -19405,7 +19405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>130</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>131</v>
       </c>
@@ -19499,7 +19499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>132</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>133</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>134</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>135</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>136</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>137</v>
       </c>
@@ -19781,7 +19781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>138</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>139</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>140</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>141</v>
       </c>
@@ -19969,7 +19969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>142</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>143</v>
       </c>
@@ -20063,7 +20063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>144</v>
       </c>
@@ -20110,7 +20110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>145</v>
       </c>
@@ -20157,7 +20157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>146</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>147</v>
       </c>
@@ -20251,7 +20251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>148</v>
       </c>
@@ -20298,7 +20298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>149</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>150</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>151</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>152</v>
       </c>
@@ -20486,7 +20486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>153</v>
       </c>
@@ -20533,7 +20533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>154</v>
       </c>
@@ -20580,7 +20580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>155</v>
       </c>
@@ -20627,7 +20627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>156</v>
       </c>
@@ -20674,7 +20674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>157</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>158</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>159</v>
       </c>
@@ -20815,7 +20815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>160</v>
       </c>
@@ -20862,7 +20862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>161</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>162</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>163</v>
       </c>
@@ -21003,7 +21003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>164</v>
       </c>
@@ -21050,7 +21050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>165</v>
       </c>
@@ -21097,7 +21097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>166</v>
       </c>
@@ -21144,7 +21144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>167</v>
       </c>
@@ -21191,7 +21191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>168</v>
       </c>
@@ -21238,7 +21238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>169</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>170</v>
       </c>
@@ -21332,7 +21332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>171</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>172</v>
       </c>
@@ -21439,29 +21439,29 @@
       <selection activeCell="B1" sqref="B1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2" style="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
         <v>31</v>
@@ -21506,7 +21506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -21553,7 +21553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -21600,7 +21600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>52</v>
       </c>
@@ -21647,7 +21647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>53</v>
       </c>
@@ -21694,7 +21694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>54</v>
       </c>
@@ -21741,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>55</v>
       </c>
@@ -21788,7 +21788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>56</v>
       </c>
@@ -21835,7 +21835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>57</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>58</v>
       </c>
@@ -21929,7 +21929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>60</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>61</v>
       </c>
@@ -22070,7 +22070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>62</v>
       </c>
@@ -22117,7 +22117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>63</v>
       </c>
@@ -22164,7 +22164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>64</v>
       </c>
@@ -22211,7 +22211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>65</v>
       </c>
@@ -22258,7 +22258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>66</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>67</v>
       </c>
@@ -22352,7 +22352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>68</v>
       </c>
@@ -22399,7 +22399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>69</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>70</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>71</v>
       </c>
@@ -22540,7 +22540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>72</v>
       </c>
@@ -22587,7 +22587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>73</v>
       </c>
@@ -22634,7 +22634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>74</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>75</v>
       </c>
@@ -22728,7 +22728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>76</v>
       </c>
@@ -22775,7 +22775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>77</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>78</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>79</v>
       </c>
@@ -22916,7 +22916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>80</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>81</v>
       </c>
@@ -23010,7 +23010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>82</v>
       </c>
@@ -23057,7 +23057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>83</v>
       </c>
@@ -23104,7 +23104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>84</v>
       </c>
@@ -23151,7 +23151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>85</v>
       </c>
@@ -23198,7 +23198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>86</v>
       </c>
@@ -23245,7 +23245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>87</v>
       </c>
@@ -23292,7 +23292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>88</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>89</v>
       </c>
@@ -23386,7 +23386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>90</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>91</v>
       </c>
@@ -23480,7 +23480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>92</v>
       </c>
@@ -23527,7 +23527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>93</v>
       </c>
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>94</v>
       </c>
@@ -23621,7 +23621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>95</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>96</v>
       </c>
@@ -23715,7 +23715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>97</v>
       </c>
@@ -23762,7 +23762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>98</v>
       </c>
@@ -23809,7 +23809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>99</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>100</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>101</v>
       </c>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>102</v>
       </c>
@@ -23997,7 +23997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>103</v>
       </c>
@@ -24044,7 +24044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>104</v>
       </c>
@@ -24091,7 +24091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>105</v>
       </c>
@@ -24138,7 +24138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>106</v>
       </c>
@@ -24185,7 +24185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>107</v>
       </c>
@@ -24232,7 +24232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>108</v>
       </c>
@@ -24279,7 +24279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>109</v>
       </c>
@@ -24326,7 +24326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>110</v>
       </c>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>111</v>
       </c>
@@ -24420,7 +24420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>112</v>
       </c>
@@ -24467,7 +24467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>113</v>
       </c>
@@ -24514,7 +24514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>114</v>
       </c>
@@ -24561,7 +24561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>115</v>
       </c>
@@ -24608,7 +24608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>116</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>117</v>
       </c>
@@ -24702,7 +24702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>118</v>
       </c>
@@ -24749,7 +24749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>119</v>
       </c>
@@ -24796,7 +24796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>120</v>
       </c>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>121</v>
       </c>
@@ -24890,7 +24890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>122</v>
       </c>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>123</v>
       </c>
@@ -24984,7 +24984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>124</v>
       </c>
@@ -25031,7 +25031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>125</v>
       </c>
@@ -25078,7 +25078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>126</v>
       </c>
@@ -25125,7 +25125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>127</v>
       </c>
@@ -25172,7 +25172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>128</v>
       </c>
@@ -25219,7 +25219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>129</v>
       </c>
@@ -25266,7 +25266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>130</v>
       </c>
@@ -25313,7 +25313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>131</v>
       </c>
@@ -25360,7 +25360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>132</v>
       </c>
@@ -25407,7 +25407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>133</v>
       </c>
@@ -25454,7 +25454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>134</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>135</v>
       </c>
@@ -25548,7 +25548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>136</v>
       </c>
@@ -25595,7 +25595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>137</v>
       </c>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>138</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>139</v>
       </c>
@@ -25736,7 +25736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>140</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>141</v>
       </c>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>142</v>
       </c>
@@ -25877,7 +25877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>143</v>
       </c>
@@ -25924,7 +25924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>144</v>
       </c>
@@ -25971,7 +25971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>145</v>
       </c>
@@ -26018,7 +26018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>146</v>
       </c>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>147</v>
       </c>
@@ -26112,7 +26112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>148</v>
       </c>
@@ -26159,7 +26159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>149</v>
       </c>
@@ -26206,7 +26206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>150</v>
       </c>
@@ -26253,7 +26253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>151</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>152</v>
       </c>
@@ -26347,7 +26347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>153</v>
       </c>
@@ -26394,7 +26394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>154</v>
       </c>
@@ -26441,7 +26441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>155</v>
       </c>
@@ -26488,7 +26488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>156</v>
       </c>
@@ -26535,7 +26535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>157</v>
       </c>
@@ -26582,7 +26582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>158</v>
       </c>
@@ -26629,7 +26629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>159</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>160</v>
       </c>
@@ -26723,7 +26723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>161</v>
       </c>
@@ -26770,7 +26770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>162</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>163</v>
       </c>
@@ -26864,7 +26864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>164</v>
       </c>
@@ -26911,7 +26911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>165</v>
       </c>
@@ -26958,7 +26958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>166</v>
       </c>
@@ -27005,7 +27005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>167</v>
       </c>
@@ -27052,7 +27052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>168</v>
       </c>
@@ -27099,7 +27099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>169</v>
       </c>
@@ -27146,7 +27146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>170</v>
       </c>
@@ -27193,7 +27193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>171</v>
       </c>
@@ -27240,7 +27240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>172</v>
       </c>
@@ -27287,7 +27287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>173</v>
       </c>
@@ -27334,7 +27334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>174</v>
       </c>
@@ -27381,7 +27381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>175</v>
       </c>
@@ -27428,7 +27428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>176</v>
       </c>
@@ -27475,7 +27475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>177</v>
       </c>
@@ -27522,7 +27522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>178</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>179</v>
       </c>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>180</v>
       </c>
@@ -27663,7 +27663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>181</v>
       </c>
@@ -27710,7 +27710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>182</v>
       </c>
@@ -27757,7 +27757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>183</v>
       </c>
@@ -27804,7 +27804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>184</v>
       </c>
@@ -27851,7 +27851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>185</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>186</v>
       </c>
@@ -27945,7 +27945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>187</v>
       </c>
@@ -27992,7 +27992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>188</v>
       </c>
@@ -28039,7 +28039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>189</v>
       </c>
@@ -28086,7 +28086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>190</v>
       </c>
@@ -28133,7 +28133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>191</v>
       </c>
@@ -28180,7 +28180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>192</v>
       </c>
@@ -28227,7 +28227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>193</v>
       </c>
@@ -28274,7 +28274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>194</v>
       </c>
@@ -28321,7 +28321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>195</v>
       </c>
@@ -28368,7 +28368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>196</v>
       </c>
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>197</v>
       </c>
@@ -28462,7 +28462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>198</v>
       </c>
@@ -28509,7 +28509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>199</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>200</v>
       </c>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>201</v>
       </c>
@@ -28650,7 +28650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>202</v>
       </c>
@@ -28697,7 +28697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>203</v>
       </c>
@@ -28744,7 +28744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>204</v>
       </c>
@@ -28791,7 +28791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>205</v>
       </c>
@@ -28838,7 +28838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>206</v>
       </c>
@@ -28885,7 +28885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>207</v>
       </c>
@@ -28932,7 +28932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>208</v>
       </c>
@@ -28979,7 +28979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>209</v>
       </c>
@@ -29026,7 +29026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>210</v>
       </c>
@@ -29073,7 +29073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>211</v>
       </c>
@@ -29120,7 +29120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>212</v>
       </c>
@@ -29167,7 +29167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>213</v>
       </c>
@@ -29214,7 +29214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>214</v>
       </c>
@@ -29261,7 +29261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>215</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
         <v>216</v>
       </c>
@@ -29355,7 +29355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>217</v>
       </c>
@@ -29402,7 +29402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
         <v>218</v>
       </c>
@@ -29449,7 +29449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>219</v>
       </c>
@@ -29496,7 +29496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
         <v>220</v>
       </c>
@@ -29543,7 +29543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>221</v>
       </c>
@@ -29590,7 +29590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
         <v>222</v>
       </c>
@@ -29637,7 +29637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
         <v>223</v>
       </c>
@@ -29684,7 +29684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
         <v>224</v>
       </c>
@@ -29731,7 +29731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
         <v>225</v>
       </c>
@@ -29778,7 +29778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>226</v>
       </c>
@@ -29825,7 +29825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
         <v>227</v>
       </c>
@@ -29872,7 +29872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>228</v>
       </c>
@@ -29919,7 +29919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>229</v>
       </c>
@@ -29966,7 +29966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
         <v>230</v>
       </c>
@@ -30013,7 +30013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
         <v>231</v>
       </c>
@@ -30060,7 +30060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
         <v>232</v>
       </c>
@@ -30107,7 +30107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
         <v>233</v>
       </c>
@@ -30154,7 +30154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
         <v>234</v>
       </c>
@@ -30201,7 +30201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
         <v>235</v>
       </c>
@@ -30248,7 +30248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>236</v>
       </c>
@@ -30295,7 +30295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
         <v>237</v>
       </c>
@@ -30342,7 +30342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>238</v>
       </c>
@@ -30389,7 +30389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
         <v>239</v>
       </c>
@@ -30436,7 +30436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
         <v>240</v>
       </c>
@@ -30483,7 +30483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>241</v>
       </c>
@@ -30530,7 +30530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
         <v>242</v>
       </c>
@@ -30577,7 +30577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
         <v>243</v>
       </c>
@@ -30624,7 +30624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
         <v>244</v>
       </c>
@@ -30671,7 +30671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
         <v>245</v>
       </c>
@@ -30718,7 +30718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
         <v>246</v>
       </c>
@@ -30765,7 +30765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
         <v>247</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
         <v>248</v>
       </c>
@@ -30859,7 +30859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
         <v>249</v>
       </c>
